--- a/ArticleManage/main_working_folder/output_folders/Data 135 Sugarcane bagasse fly ash/Data135_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 135 Sugarcane bagasse fly ash/Data135_all_graphs_excel.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="f1_1" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1_1 f1_1  0-1-0-60 " sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -97,7 +97,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki f1_1</a:t>
+              <a:t>Izoterma adsorpcji probki f1_1 z wykresu 'Figure 1_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -156,12 +156,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>f1_1!$A$3:$A$50</c:f>
+              <c:f>'Figure 1_1 f1_1  0-1-0-60 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>f1_1!$B$3:$B$50</c:f>
+              <c:f>'Figure 1_1 f1_1  0-1-0-60 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -174,6 +174,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -243,6 +245,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="60"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 135 Sugarcane bagasse fly ash/Data135_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 135 Sugarcane bagasse fly ash/Data135_all_graphs_excel.xlsx
@@ -1271,7 +1271,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1292,245 +1292,309 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0016</v>
+        <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>18.2133</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0156</v>
+        <v>0.9894</v>
       </c>
       <c r="B4" s="0">
-        <v>23.9404</v>
+        <v>44.9672</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0633</v>
+        <v>0.9776</v>
       </c>
       <c r="B5" s="0">
-        <v>26.985</v>
+        <v>43.57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1112</v>
+        <v>0.9735</v>
       </c>
       <c r="B6" s="0">
-        <v>28.3047</v>
+        <v>42.7319</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1635</v>
+        <v>0.9482</v>
       </c>
       <c r="B7" s="0">
-        <v>29.2656</v>
+        <v>41.0145</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.2139</v>
+        <v>0.9223</v>
       </c>
       <c r="B8" s="0">
-        <v>30.0716</v>
+        <v>39.8555</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.2669</v>
+        <v>0.8975</v>
       </c>
       <c r="B9" s="0">
-        <v>30.8038</v>
+        <v>39.1355</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.3201</v>
+        <v>0.874</v>
       </c>
       <c r="B10" s="0">
-        <v>31.4022</v>
+        <v>38.4554</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.3729</v>
+        <v>0.8486</v>
       </c>
       <c r="B11" s="0">
-        <v>32.0455</v>
+        <v>37.855</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.4254</v>
+        <v>0.8186</v>
       </c>
       <c r="B12" s="0">
-        <v>32.5835</v>
+        <v>37.3339</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.4783</v>
+        <v>0.7986</v>
       </c>
       <c r="B13" s="0">
-        <v>33.1607</v>
+        <v>36.8935</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.5313</v>
+        <v>0.7485</v>
       </c>
       <c r="B14" s="0">
-        <v>33.67</v>
+        <v>36.1714</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.5839</v>
+        <v>0.6991</v>
       </c>
       <c r="B15" s="0">
-        <v>34.271</v>
+        <v>35.609</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.6369</v>
+        <v>0.649</v>
       </c>
       <c r="B16" s="0">
-        <v>34.8057</v>
+        <v>35.0066</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.6899</v>
+        <v>0.6007</v>
       </c>
       <c r="B17" s="0">
-        <v>35.4294</v>
+        <v>34.4841</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.7447</v>
+        <v>0.5495</v>
       </c>
       <c r="B18" s="0">
-        <v>36.0595</v>
+        <v>33.8816</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.7968</v>
+        <v>0.4994</v>
       </c>
       <c r="B19" s="0">
-        <v>36.8654</v>
+        <v>33.3191</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.8492</v>
+        <v>0.4499</v>
       </c>
       <c r="B20" s="0">
-        <v>37.8601</v>
+        <v>32.9162</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.901</v>
+        <v>0.4005</v>
       </c>
       <c r="B21" s="0">
-        <v>39.2117</v>
+        <v>32.3538</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.9508</v>
+        <v>0.3498</v>
       </c>
       <c r="B22" s="0">
-        <v>41.3167</v>
+        <v>31.8311</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.9862</v>
+        <v>0.2992</v>
       </c>
       <c r="B23" s="0">
-        <v>43.9245</v>
+        <v>31.2287</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.9994</v>
+        <v>0.2527</v>
       </c>
       <c r="B24" s="0">
-        <v>55.4091</v>
+        <v>30.6266</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.9894</v>
+        <v>0.2002</v>
       </c>
       <c r="B25" s="0">
-        <v>46.0444</v>
+        <v>29.9043</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.1307</v>
+        <v>0.1802</v>
       </c>
       <c r="B26" s="0">
-        <v>28.662</v>
+        <v>29.7032</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0436</v>
+        <v>0.162</v>
       </c>
       <c r="B27" s="0">
-        <v>26.3413</v>
+        <v>29.2629</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0224</v>
+        <v>0.1408</v>
       </c>
       <c r="B28" s="0">
-        <v>25.1428</v>
+        <v>28.8224</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0071</v>
+        <v>0.1219</v>
       </c>
       <c r="B29" s="0">
-        <v>22.349</v>
+        <v>28.6214</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0024</v>
+        <v>0.1007</v>
       </c>
       <c r="B30" s="0">
-        <v>20.6731</v>
+        <v>28.2208</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0012</v>
+        <v>0.0913</v>
       </c>
       <c r="B31" s="0">
-        <v>16.1249</v>
+        <v>28.0605</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.9682</v>
+        <v>0.0807</v>
       </c>
       <c r="B32" s="0">
-        <v>42.6916</v>
-      </c>
-    </row>
-    <row r="33"/>
+        <v>27.7804</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.0683</v>
+      </c>
+      <c r="B33" s="0">
+        <v>27.1411</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.0318</v>
+      </c>
+      <c r="B34" s="0">
+        <v>25.8616</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.0135</v>
+      </c>
+      <c r="B35" s="0">
+        <v>24.5835</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.0065</v>
+      </c>
+      <c r="B36" s="0">
+        <v>23.1069</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.0018</v>
+      </c>
+      <c r="B37" s="0">
+        <v>21.6704</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.0012</v>
+      </c>
+      <c r="B38" s="0">
+        <v>20.1943</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>-0.0006</v>
+      </c>
+      <c r="B39" s="0">
+        <v>18.4787</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>-0.0012</v>
+      </c>
+      <c r="B40" s="0">
+        <v>16.8829</v>
+      </c>
+    </row>
+    <row r="41"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 135 Sugarcane bagasse fly ash/Data135_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 135 Sugarcane bagasse fly ash/Data135_all_graphs_excel.xlsx
@@ -5,22 +5,34 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 1_1 f1_1  0-1-0-60 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1 b  0&amp;1&amp;0&amp;375 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1 c  0&amp;1&amp;0&amp;135 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1 d  0&amp;1&amp;0&amp;60 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1_1 f1_1  0&amp;1&amp;0&amp;60 " sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>f1_1</t>
+    <t>b</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>f1_1</t>
   </si>
 </sst>
 </file>
@@ -65,6 +77,948 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki b z wykresu 'Figure 1' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 1 b  0&amp;1&amp;0&amp;375 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 1 b  0&amp;1&amp;0&amp;375 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="375"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki c z wykresu 'Figure 1' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 1 c  0&amp;1&amp;0&amp;135 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 1 c  0&amp;1&amp;0&amp;135 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="135"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki d z wykresu 'Figure 1' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 1 d  0&amp;1&amp;0&amp;60 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 1 d  0&amp;1&amp;0&amp;60 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="60"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -156,12 +1110,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1_1 f1_1  0-1-0-60 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_1 f1_1  0&amp;1&amp;0&amp;60 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1_1 f1_1  0-1-0-60 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_1 f1_1  0&amp;1&amp;0&amp;60 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -418,7 +1372,1690 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -957,6 +3594,111 @@
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1271,6 +4013,1082 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.0002</v>
+      </c>
+      <c r="B3" s="0">
+        <v>149.5554</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.0008</v>
+      </c>
+      <c r="B4" s="0">
+        <v>161.846</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.0014</v>
+      </c>
+      <c r="B5" s="0">
+        <v>173.8752</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.0026</v>
+      </c>
+      <c r="B6" s="0">
+        <v>185.3811</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.0049</v>
+      </c>
+      <c r="B7" s="0">
+        <v>196.8868</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.0101</v>
+      </c>
+      <c r="B8" s="0">
+        <v>208.3917</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.0287</v>
+      </c>
+      <c r="B9" s="0">
+        <v>228.7844</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.0576</v>
+      </c>
+      <c r="B10" s="0">
+        <v>243.4212</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.0703</v>
+      </c>
+      <c r="B11" s="0">
+        <v>247.6019</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.0818</v>
+      </c>
+      <c r="B12" s="0">
+        <v>251.783</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.0922</v>
+      </c>
+      <c r="B13" s="0">
+        <v>254.3953</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.1015</v>
+      </c>
+      <c r="B14" s="0">
+        <v>256.485</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.1206</v>
+      </c>
+      <c r="B15" s="0">
+        <v>259.8796</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.1414</v>
+      </c>
+      <c r="B16" s="0">
+        <v>263.5352</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.1627</v>
+      </c>
+      <c r="B17" s="0">
+        <v>267.1907</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.183</v>
+      </c>
+      <c r="B18" s="0">
+        <v>270.062</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.202</v>
+      </c>
+      <c r="B19" s="0">
+        <v>272.1491</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.2506</v>
+      </c>
+      <c r="B20" s="0">
+        <v>277.628</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.3026</v>
+      </c>
+      <c r="B21" s="0">
+        <v>282.8445</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.3349</v>
+      </c>
+      <c r="B22" s="0">
+        <v>286.2357</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.3505</v>
+      </c>
+      <c r="B23" s="0">
+        <v>287.0161</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.3956</v>
+      </c>
+      <c r="B24" s="0">
+        <v>291.9729</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.402</v>
+      </c>
+      <c r="B25" s="0">
+        <v>291.1867</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.4488</v>
+      </c>
+      <c r="B26" s="0">
+        <v>295.6201</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.5008</v>
+      </c>
+      <c r="B27" s="0">
+        <v>299.7906</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.5504</v>
+      </c>
+      <c r="B28" s="0">
+        <v>303.9617</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.6007</v>
+      </c>
+      <c r="B29" s="0">
+        <v>308.3942</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.6504</v>
+      </c>
+      <c r="B30" s="0">
+        <v>313.0883</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.7007</v>
+      </c>
+      <c r="B31" s="0">
+        <v>317.5208</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.7504</v>
+      </c>
+      <c r="B32" s="0">
+        <v>322.7379</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.7995</v>
+      </c>
+      <c r="B33" s="0">
+        <v>328.7397</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.8208</v>
+      </c>
+      <c r="B34" s="0">
+        <v>331.6107</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.8503</v>
+      </c>
+      <c r="B35" s="0">
+        <v>335.2641</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.8752</v>
+      </c>
+      <c r="B36" s="0">
+        <v>339.4417</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.9</v>
+      </c>
+      <c r="B37" s="0">
+        <v>343.8808</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.9254</v>
+      </c>
+      <c r="B38" s="0">
+        <v>348.8427</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.9497</v>
+      </c>
+      <c r="B39" s="0">
+        <v>355.6356</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.974</v>
+      </c>
+      <c r="B40" s="0">
+        <v>366.6125</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.9815</v>
+      </c>
+      <c r="B41" s="0">
+        <v>371.8406</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.9896</v>
+      </c>
+      <c r="B42" s="0">
+        <v>381.5142</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.9948</v>
+      </c>
+      <c r="B43" s="0">
+        <v>388.5735</v>
+      </c>
+    </row>
+    <row r="44"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>-0.0006</v>
+      </c>
+      <c r="B3" s="0">
+        <v>20.3711</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>-0</v>
+      </c>
+      <c r="B4" s="0">
+        <v>40.2847</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>-0</v>
+      </c>
+      <c r="B5" s="0">
+        <v>60.019</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.0006</v>
+      </c>
+      <c r="B6" s="0">
+        <v>79.5738</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.0106</v>
+      </c>
+      <c r="B7" s="0">
+        <v>95.7209</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.0211</v>
+      </c>
+      <c r="B8" s="0">
+        <v>99.9378</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.0323</v>
+      </c>
+      <c r="B9" s="0">
+        <v>102.0916</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.0464</v>
+      </c>
+      <c r="B10" s="0">
+        <v>104.156</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.0728</v>
+      </c>
+      <c r="B11" s="0">
+        <v>106.2215</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.0921</v>
+      </c>
+      <c r="B12" s="0">
+        <v>107.2997</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.1109</v>
+      </c>
+      <c r="B13" s="0">
+        <v>108.2881</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.1356</v>
+      </c>
+      <c r="B14" s="0">
+        <v>109.0976</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.1526</v>
+      </c>
+      <c r="B15" s="0">
+        <v>109.8167</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.1761</v>
+      </c>
+      <c r="B16" s="0">
+        <v>110.357</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.2007</v>
+      </c>
+      <c r="B17" s="0">
+        <v>111.1665</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.2248</v>
+      </c>
+      <c r="B18" s="0">
+        <v>111.6172</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.25</v>
+      </c>
+      <c r="B19" s="0">
+        <v>112.1577</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.2752</v>
+      </c>
+      <c r="B20" s="0">
+        <v>112.5187</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.2993</v>
+      </c>
+      <c r="B21" s="0">
+        <v>112.9694</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.3198</v>
+      </c>
+      <c r="B22" s="0">
+        <v>113.0609</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.341</v>
+      </c>
+      <c r="B23" s="0">
+        <v>113.5113</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.3791</v>
+      </c>
+      <c r="B24" s="0">
+        <v>114.1427</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.419</v>
+      </c>
+      <c r="B25" s="0">
+        <v>114.5051</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.4577</v>
+      </c>
+      <c r="B26" s="0">
+        <v>114.8673</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.4982</v>
+      </c>
+      <c r="B27" s="0">
+        <v>115.2298</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.5381</v>
+      </c>
+      <c r="B28" s="0">
+        <v>115.5922</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.5781</v>
+      </c>
+      <c r="B29" s="0">
+        <v>116.0442</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.6185</v>
+      </c>
+      <c r="B30" s="0">
+        <v>116.317</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.6585</v>
+      </c>
+      <c r="B31" s="0">
+        <v>116.7691</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.6989</v>
+      </c>
+      <c r="B32" s="0">
+        <v>117.0418</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.7383</v>
+      </c>
+      <c r="B33" s="0">
+        <v>117.4041</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.7776</v>
+      </c>
+      <c r="B34" s="0">
+        <v>117.9459</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.8175</v>
+      </c>
+      <c r="B35" s="0">
+        <v>118.3979</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.8586</v>
+      </c>
+      <c r="B36" s="0">
+        <v>119.0295</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.8885</v>
+      </c>
+      <c r="B37" s="0">
+        <v>119.6601</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.9014</v>
+      </c>
+      <c r="B38" s="0">
+        <v>119.9304</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.9202</v>
+      </c>
+      <c r="B39" s="0">
+        <v>120.2909</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.939</v>
+      </c>
+      <c r="B40" s="0">
+        <v>121.0102</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.9601</v>
+      </c>
+      <c r="B41" s="0">
+        <v>122.3576</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.9777</v>
+      </c>
+      <c r="B42" s="0">
+        <v>123.7944</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.9871</v>
+      </c>
+      <c r="B43" s="0">
+        <v>125.5892</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.9953</v>
+      </c>
+      <c r="B44" s="0">
+        <v>127.6531</v>
+      </c>
+    </row>
+    <row r="45"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>-0.0018</v>
+      </c>
+      <c r="B3" s="0">
+        <v>20.6363</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.0082</v>
+      </c>
+      <c r="B4" s="0">
+        <v>30.5269</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.0205</v>
+      </c>
+      <c r="B5" s="0">
+        <v>33.3466</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.0322</v>
+      </c>
+      <c r="B6" s="0">
+        <v>34.8175</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.0462</v>
+      </c>
+      <c r="B7" s="0">
+        <v>36.1248</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.0725</v>
+      </c>
+      <c r="B8" s="0">
+        <v>37.8403</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.0889</v>
+      </c>
+      <c r="B9" s="0">
+        <v>38.6162</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.1105</v>
+      </c>
+      <c r="B10" s="0">
+        <v>39.3919</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.1345</v>
+      </c>
+      <c r="B11" s="0">
+        <v>40.1675</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.1515</v>
+      </c>
+      <c r="B12" s="0">
+        <v>40.6164</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.176</v>
+      </c>
+      <c r="B13" s="0">
+        <v>41.1467</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.2012</v>
+      </c>
+      <c r="B14" s="0">
+        <v>41.7179</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.2257</v>
+      </c>
+      <c r="B15" s="0">
+        <v>42.0848</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.2509</v>
+      </c>
+      <c r="B16" s="0">
+        <v>42.4107</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.2754</v>
+      </c>
+      <c r="B17" s="0">
+        <v>42.6549</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.2988</v>
+      </c>
+      <c r="B18" s="0">
+        <v>43.0218</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.3193</v>
+      </c>
+      <c r="B19" s="0">
+        <v>43.2662</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.3409</v>
+      </c>
+      <c r="B20" s="0">
+        <v>43.4697</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.3789</v>
+      </c>
+      <c r="B21" s="0">
+        <v>43.7951</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.4181</v>
+      </c>
+      <c r="B22" s="0">
+        <v>44.1205</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.4579</v>
+      </c>
+      <c r="B23" s="0">
+        <v>44.5276</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.4982</v>
+      </c>
+      <c r="B24" s="0">
+        <v>44.9347</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.5374</v>
+      </c>
+      <c r="B25" s="0">
+        <v>45.1783</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.5784</v>
+      </c>
+      <c r="B26" s="0">
+        <v>45.5445</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.6181</v>
+      </c>
+      <c r="B27" s="0">
+        <v>45.8698</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.6579</v>
+      </c>
+      <c r="B28" s="0">
+        <v>46.2769</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.6977</v>
+      </c>
+      <c r="B29" s="0">
+        <v>46.5614</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.738</v>
+      </c>
+      <c r="B30" s="0">
+        <v>47.0093</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.7778</v>
+      </c>
+      <c r="B31" s="0">
+        <v>47.4573</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.8175</v>
+      </c>
+      <c r="B32" s="0">
+        <v>47.8644</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.8585</v>
+      </c>
+      <c r="B33" s="0">
+        <v>48.4758</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.8877</v>
+      </c>
+      <c r="B34" s="0">
+        <v>48.9651</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.9018</v>
+      </c>
+      <c r="B35" s="0">
+        <v>49.2915</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.9187</v>
+      </c>
+      <c r="B36" s="0">
+        <v>49.9856</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.9392</v>
+      </c>
+      <c r="B37" s="0">
+        <v>50.7613</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.9544</v>
+      </c>
+      <c r="B38" s="0">
+        <v>51.5781</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.9696</v>
+      </c>
+      <c r="B39" s="0">
+        <v>52.4767</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.9801</v>
+      </c>
+      <c r="B40" s="0">
+        <v>53.9477</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.9848</v>
+      </c>
+      <c r="B41" s="0">
+        <v>55.3371</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.9918</v>
+      </c>
+      <c r="B42" s="0">
+        <v>56.4812</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.9947</v>
+      </c>
+      <c r="B43" s="0">
+        <v>57.789</v>
+      </c>
+    </row>
+    <row r="44"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1279,7 +5097,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">

--- a/ArticleManage/main_working_folder/output_folders/Data 135 Sugarcane bagasse fly ash/Data135_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 135 Sugarcane bagasse fly ash/Data135_all_graphs_excel.xlsx
@@ -5,10 +5,10 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 1 b  0&amp;1&amp;0&amp;375 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 1 c  0&amp;1&amp;0&amp;135 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 1 d  0&amp;1&amp;0&amp;60 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 1_1 f1_1  0&amp;1&amp;0&amp;60 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 1_1 f1_1  0&amp;1&amp;0&amp;60 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1_2 b  0&amp;1&amp;0&amp;375 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1_3 c  0&amp;1&amp;0&amp;135 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1_4 d  0&amp;1&amp;0&amp;60 " sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>b</t>
+    <t>f1_1</t>
   </si>
   <si>
     <t>X</t>
@@ -26,13 +26,13 @@
     <t>Y</t>
   </si>
   <si>
+    <t>b</t>
+  </si>
+  <si>
     <t>c</t>
   </si>
   <si>
     <t>d</t>
-  </si>
-  <si>
-    <t>f1_1</t>
   </si>
 </sst>
 </file>
@@ -109,7 +109,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki b z wykresu 'Figure 1' </a:t>
+              <a:t>Izoterma adsorpcji probki f1_1 z wykresu 'Figure 1_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -168,12 +168,326 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 b  0&amp;1&amp;0&amp;375 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_1 f1_1  0&amp;1&amp;0&amp;60 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 b  0&amp;1&amp;0&amp;375 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_1 f1_1  0&amp;1&amp;0&amp;60 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="60"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki b z wykresu 'Figure 1_2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 1_2 b  0&amp;1&amp;0&amp;375 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 1_2 b  0&amp;1&amp;0&amp;375 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -390,7 +704,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -423,7 +737,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki c z wykresu 'Figure 1' </a:t>
+              <a:t>Izoterma adsorpcji probki c z wykresu 'Figure 1_3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -482,12 +796,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 c  0&amp;1&amp;0&amp;135 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_3 c  0&amp;1&amp;0&amp;135 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 c  0&amp;1&amp;0&amp;135 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_3 c  0&amp;1&amp;0&amp;135 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -704,7 +1018,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -737,7 +1051,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki d z wykresu 'Figure 1' </a:t>
+              <a:t>Izoterma adsorpcji probki d z wykresu 'Figure 1_4' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -796,326 +1110,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 d  0&amp;1&amp;0&amp;60 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_4 d  0&amp;1&amp;0&amp;60 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 d  0&amp;1&amp;0&amp;60 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="60"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki f1_1 z wykresu 'Figure 1_1' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 1_1 f1_1  0&amp;1&amp;0&amp;60 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 1_1 f1_1  0&amp;1&amp;0&amp;60 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_4 d  0&amp;1&amp;0&amp;60 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -4013,6 +4013,338 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9894</v>
+      </c>
+      <c r="B4" s="0">
+        <v>44.9672</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.9776</v>
+      </c>
+      <c r="B5" s="0">
+        <v>43.57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.9735</v>
+      </c>
+      <c r="B6" s="0">
+        <v>42.7319</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.9482</v>
+      </c>
+      <c r="B7" s="0">
+        <v>41.0145</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.9223</v>
+      </c>
+      <c r="B8" s="0">
+        <v>39.8555</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.8975</v>
+      </c>
+      <c r="B9" s="0">
+        <v>39.1355</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.874</v>
+      </c>
+      <c r="B10" s="0">
+        <v>38.4554</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.8486</v>
+      </c>
+      <c r="B11" s="0">
+        <v>37.855</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.8186</v>
+      </c>
+      <c r="B12" s="0">
+        <v>37.3339</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.7986</v>
+      </c>
+      <c r="B13" s="0">
+        <v>36.8935</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.7485</v>
+      </c>
+      <c r="B14" s="0">
+        <v>36.1714</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.6991</v>
+      </c>
+      <c r="B15" s="0">
+        <v>35.609</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.649</v>
+      </c>
+      <c r="B16" s="0">
+        <v>35.0066</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.6007</v>
+      </c>
+      <c r="B17" s="0">
+        <v>34.4841</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.5495</v>
+      </c>
+      <c r="B18" s="0">
+        <v>33.8816</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.4994</v>
+      </c>
+      <c r="B19" s="0">
+        <v>33.3191</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.4499</v>
+      </c>
+      <c r="B20" s="0">
+        <v>32.9162</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.4005</v>
+      </c>
+      <c r="B21" s="0">
+        <v>32.3538</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.3498</v>
+      </c>
+      <c r="B22" s="0">
+        <v>31.8311</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.2992</v>
+      </c>
+      <c r="B23" s="0">
+        <v>31.2287</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.2527</v>
+      </c>
+      <c r="B24" s="0">
+        <v>30.6266</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.2002</v>
+      </c>
+      <c r="B25" s="0">
+        <v>29.9043</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.1802</v>
+      </c>
+      <c r="B26" s="0">
+        <v>29.7032</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.162</v>
+      </c>
+      <c r="B27" s="0">
+        <v>29.2629</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.1408</v>
+      </c>
+      <c r="B28" s="0">
+        <v>28.8224</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.1219</v>
+      </c>
+      <c r="B29" s="0">
+        <v>28.6214</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.1007</v>
+      </c>
+      <c r="B30" s="0">
+        <v>28.2208</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.0913</v>
+      </c>
+      <c r="B31" s="0">
+        <v>28.0605</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.0807</v>
+      </c>
+      <c r="B32" s="0">
+        <v>27.7804</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.0683</v>
+      </c>
+      <c r="B33" s="0">
+        <v>27.1411</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.0318</v>
+      </c>
+      <c r="B34" s="0">
+        <v>25.8616</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.0135</v>
+      </c>
+      <c r="B35" s="0">
+        <v>24.5835</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.0065</v>
+      </c>
+      <c r="B36" s="0">
+        <v>23.1069</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.0018</v>
+      </c>
+      <c r="B37" s="0">
+        <v>21.6704</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.0012</v>
+      </c>
+      <c r="B38" s="0">
+        <v>20.1943</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>-0.0006</v>
+      </c>
+      <c r="B39" s="0">
+        <v>18.4787</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>-0.0012</v>
+      </c>
+      <c r="B40" s="0">
+        <v>16.8829</v>
+      </c>
+    </row>
+    <row r="41"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4021,7 +4353,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
@@ -4367,7 +4699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B45"/>
   <sheetViews>
@@ -4377,7 +4709,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -4731,7 +5063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B44"/>
   <sheetViews>
@@ -4741,7 +5073,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
@@ -5085,336 +5417,4 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>1</v>
-      </c>
-      <c r="B3" s="0">
-        <v>55.5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.9894</v>
-      </c>
-      <c r="B4" s="0">
-        <v>44.9672</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.9776</v>
-      </c>
-      <c r="B5" s="0">
-        <v>43.57</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.9735</v>
-      </c>
-      <c r="B6" s="0">
-        <v>42.7319</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.9482</v>
-      </c>
-      <c r="B7" s="0">
-        <v>41.0145</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.9223</v>
-      </c>
-      <c r="B8" s="0">
-        <v>39.8555</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.8975</v>
-      </c>
-      <c r="B9" s="0">
-        <v>39.1355</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.874</v>
-      </c>
-      <c r="B10" s="0">
-        <v>38.4554</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.8486</v>
-      </c>
-      <c r="B11" s="0">
-        <v>37.855</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.8186</v>
-      </c>
-      <c r="B12" s="0">
-        <v>37.3339</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.7986</v>
-      </c>
-      <c r="B13" s="0">
-        <v>36.8935</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.7485</v>
-      </c>
-      <c r="B14" s="0">
-        <v>36.1714</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.6991</v>
-      </c>
-      <c r="B15" s="0">
-        <v>35.609</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.649</v>
-      </c>
-      <c r="B16" s="0">
-        <v>35.0066</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.6007</v>
-      </c>
-      <c r="B17" s="0">
-        <v>34.4841</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.5495</v>
-      </c>
-      <c r="B18" s="0">
-        <v>33.8816</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.4994</v>
-      </c>
-      <c r="B19" s="0">
-        <v>33.3191</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.4499</v>
-      </c>
-      <c r="B20" s="0">
-        <v>32.9162</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.4005</v>
-      </c>
-      <c r="B21" s="0">
-        <v>32.3538</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.3498</v>
-      </c>
-      <c r="B22" s="0">
-        <v>31.8311</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.2992</v>
-      </c>
-      <c r="B23" s="0">
-        <v>31.2287</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.2527</v>
-      </c>
-      <c r="B24" s="0">
-        <v>30.6266</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.2002</v>
-      </c>
-      <c r="B25" s="0">
-        <v>29.9043</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.1802</v>
-      </c>
-      <c r="B26" s="0">
-        <v>29.7032</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.162</v>
-      </c>
-      <c r="B27" s="0">
-        <v>29.2629</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.1408</v>
-      </c>
-      <c r="B28" s="0">
-        <v>28.8224</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.1219</v>
-      </c>
-      <c r="B29" s="0">
-        <v>28.6214</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.1007</v>
-      </c>
-      <c r="B30" s="0">
-        <v>28.2208</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.0913</v>
-      </c>
-      <c r="B31" s="0">
-        <v>28.0605</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.0807</v>
-      </c>
-      <c r="B32" s="0">
-        <v>27.7804</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.0683</v>
-      </c>
-      <c r="B33" s="0">
-        <v>27.1411</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.0318</v>
-      </c>
-      <c r="B34" s="0">
-        <v>25.8616</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.0135</v>
-      </c>
-      <c r="B35" s="0">
-        <v>24.5835</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.0065</v>
-      </c>
-      <c r="B36" s="0">
-        <v>23.1069</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.0018</v>
-      </c>
-      <c r="B37" s="0">
-        <v>21.6704</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.0012</v>
-      </c>
-      <c r="B38" s="0">
-        <v>20.1943</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>-0.0006</v>
-      </c>
-      <c r="B39" s="0">
-        <v>18.4787</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>-0.0012</v>
-      </c>
-      <c r="B40" s="0">
-        <v>16.8829</v>
-      </c>
-    </row>
-    <row r="41"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/ArticleManage/main_working_folder/output_folders/Data 135 Sugarcane bagasse fly ash/Data135_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 135 Sugarcane bagasse fly ash/Data135_all_graphs_excel.xlsx
@@ -5,10 +5,10 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 1_1 f1_1  0&amp;1&amp;0&amp;60 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 1_2 b  0&amp;1&amp;0&amp;375 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 1_3 c  0&amp;1&amp;0&amp;135 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 1_4 d  0&amp;1&amp;0&amp;60 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 1_1 SC  0&amp;1&amp;0&amp;60 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1_2 CC  0&amp;1&amp;0&amp;375 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1_3 7AC  0&amp;1&amp;0&amp;135 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1_4 P3  0&amp;1&amp;0&amp;60 " sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>f1_1</t>
+    <t>SC</t>
   </si>
   <si>
     <t>X</t>
@@ -26,13 +26,13 @@
     <t>Y</t>
   </si>
   <si>
-    <t>b</t>
+    <t>CC</t>
   </si>
   <si>
-    <t>c</t>
+    <t>7AC</t>
   </si>
   <si>
-    <t>d</t>
+    <t>P3</t>
   </si>
 </sst>
 </file>
@@ -109,7 +109,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki f1_1 z wykresu 'Figure 1_1' </a:t>
+              <a:t>Izoterma adsorpcji probki SC z wykresu 'Figure 1_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -168,12 +168,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1_1 f1_1  0&amp;1&amp;0&amp;60 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_1 SC  0&amp;1&amp;0&amp;60 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1_1 f1_1  0&amp;1&amp;0&amp;60 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_1 SC  0&amp;1&amp;0&amp;60 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -423,7 +423,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki b z wykresu 'Figure 1_2' </a:t>
+              <a:t>Izoterma adsorpcji probki CC z wykresu 'Figure 1_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -482,12 +482,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1_2 b  0&amp;1&amp;0&amp;375 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_2 CC  0&amp;1&amp;0&amp;375 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1_2 b  0&amp;1&amp;0&amp;375 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_2 CC  0&amp;1&amp;0&amp;375 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -737,7 +737,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki c z wykresu 'Figure 1_3' </a:t>
+              <a:t>Izoterma adsorpcji probki 7AC z wykresu 'Figure 1_3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -796,12 +796,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1_3 c  0&amp;1&amp;0&amp;135 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_3 7AC  0&amp;1&amp;0&amp;135 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1_3 c  0&amp;1&amp;0&amp;135 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_3 7AC  0&amp;1&amp;0&amp;135 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1051,7 +1051,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki d z wykresu 'Figure 1_4' </a:t>
+              <a:t>Izoterma adsorpcji probki P3 z wykresu 'Figure 1_4' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1110,12 +1110,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1_4 d  0&amp;1&amp;0&amp;60 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_4 P3  0&amp;1&amp;0&amp;60 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1_4 d  0&amp;1&amp;0&amp;60 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_4 P3  0&amp;1&amp;0&amp;60 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
